--- a/ASIANPAINT.xlsx
+++ b/ASIANPAINT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="87">
   <si>
     <t>Project_title</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>Autonomous driving</t>
+  </si>
+  <si>
+    <t>Music platform</t>
+  </si>
+  <si>
+    <t>Abba dabba</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>baba dabba</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1620,7 @@
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2248,7 +2266,7 @@
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -2978,13 +2996,37 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>

--- a/ASIANPAINT.xlsx
+++ b/ASIANPAINT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ASIANPAINT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="218">
   <si>
     <t>Project_title</t>
   </si>
@@ -262,26 +262,419 @@
     <t>Music platform</t>
   </si>
   <si>
-    <t>Abba dabba</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>baba dabba</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Simple Calculator</t>
+  </si>
+  <si>
+    <t>Currency Converter</t>
+  </si>
+  <si>
+    <t>Expense Tracker</t>
+  </si>
+  <si>
+    <t>Meditation App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>Home Automation App</t>
+  </si>
+  <si>
+    <t>Personal Assistant App</t>
+  </si>
+  <si>
+    <t>Ride-Sharing App</t>
+  </si>
+  <si>
+    <t>Augmented Reality App</t>
+  </si>
+  <si>
+    <t>E-commerce App</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Social Media App</t>
+  </si>
+  <si>
+    <t>Online Learning App</t>
+  </si>
+  <si>
+    <t>Food Delivery App</t>
+  </si>
+  <si>
+    <t>Virtual Reality App</t>
+  </si>
+  <si>
+    <t>Hangman Game</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>Tic-Tac-Toe Game:</t>
+  </si>
+  <si>
+    <t>Mad Libs Game</t>
+  </si>
+  <si>
+    <t>Rock-Paper-Scissors Game</t>
+  </si>
+  <si>
+    <t>Weather App</t>
+  </si>
+  <si>
+    <t>Stock Market Analysis</t>
+  </si>
+  <si>
+    <t>Full Stack Development</t>
+  </si>
+  <si>
+    <t>Personal Finance Manager</t>
+  </si>
+  <si>
+    <t>Smart Home Automation</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>Weather Station</t>
+  </si>
+  <si>
+    <t>Smart Irrigation System</t>
+  </si>
+  <si>
+    <t>Smart Security System</t>
+  </si>
+  <si>
+    <t>Health Monitoring System</t>
+  </si>
+  <si>
+    <t>Smart Traffic Management System</t>
+  </si>
+  <si>
+    <t>Line Following Robot</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>Robot Development</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Obstacle Avoiding Robot</t>
+  </si>
+  <si>
+    <t>Sumo Robot</t>
+  </si>
+  <si>
+    <t>Swarm Robotics</t>
+  </si>
+  <si>
+    <t>Password Manager</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Detection tool</t>
+  </si>
+  <si>
+    <t>Intrusion Detection System</t>
+  </si>
+  <si>
+    <t>Encryption Tool</t>
+  </si>
+  <si>
+    <t>Network Firewall</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>Database Management</t>
+  </si>
+  <si>
+    <t>Employee Management System</t>
+  </si>
+  <si>
+    <t>Online Store  Management System</t>
+  </si>
+  <si>
+    <t>Library Management System</t>
+  </si>
+  <si>
+    <t>Movie Database</t>
+  </si>
+  <si>
+    <t>Sports Statistics Database</t>
+  </si>
+  <si>
+    <t>Todo List Application</t>
+  </si>
+  <si>
+    <t>PyQt5</t>
+  </si>
+  <si>
+    <t>Calculator</t>
+  </si>
+  <si>
+    <t>Image Viewer</t>
+  </si>
+  <si>
+    <t>Music Player</t>
+  </si>
+  <si>
+    <t>Analysis System</t>
+  </si>
+  <si>
+    <t>Analysis system</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Customer Analysis</t>
+  </si>
+  <si>
+    <t>Time Series Analysis</t>
+  </si>
+  <si>
+    <t>Fraud analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake News Detection </t>
+  </si>
+  <si>
+    <t>Profit Prediction</t>
+  </si>
+  <si>
+    <t>Machin learning</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card Default Prediction </t>
+  </si>
+  <si>
+    <t>Loan Eligibility Prediction</t>
+  </si>
+  <si>
+    <t>Build Portfolio Optimization</t>
+  </si>
+  <si>
+    <t>Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Python Flask</t>
+  </si>
+  <si>
+    <t>deep learning</t>
+  </si>
+  <si>
+    <t>Machin Learning</t>
+  </si>
+  <si>
+    <t>Ecommerce product reviews</t>
+  </si>
+  <si>
+    <t>BigMart Sales Prediction</t>
+  </si>
+  <si>
+    <t>Music Recommendation Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predict Churn for a Telecom company </t>
+  </si>
+  <si>
+    <t>Language Translation</t>
+  </si>
+  <si>
+    <t>Credit Card Fraud Detection</t>
+  </si>
+  <si>
+    <t>cybersecurity</t>
+  </si>
+  <si>
+    <t>Detecting Phishing website</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Market Basket Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apriori and Fp Growth data mining algorithms</t>
+  </si>
+  <si>
+    <t>Health Monitoring System using IoT</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Image Segmentation</t>
+  </si>
+  <si>
+    <t>Computer vision</t>
+  </si>
+  <si>
+    <t>Handwritten Digits Recognition</t>
+  </si>
+  <si>
+    <t>Fetch.ai (FET)</t>
+  </si>
+  <si>
+    <t>blockchain technology and AI</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyber Threat Identification</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>AI and ML</t>
+  </si>
+  <si>
+    <t>AI-based Antivirus Software</t>
+  </si>
+  <si>
+    <t>Fighting AI Threats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicting Wine Quality </t>
+  </si>
+  <si>
+    <t>Stock Prices Prediction</t>
+  </si>
+  <si>
+    <t>Sports match video to text summarization</t>
+  </si>
+  <si>
+    <t>machine learning algorithms</t>
+  </si>
+  <si>
+    <t>neural network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business meeting summary generation </t>
+  </si>
+  <si>
+    <t>Number of People Counter</t>
+  </si>
+  <si>
+    <t>Squid Game Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Age Calculator App</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Tkinter</t>
+  </si>
+  <si>
+    <t>Restaurant Management System</t>
+  </si>
+  <si>
+    <t>Cloud File Sharing System</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rental Property System with Smart Contracts</t>
+  </si>
+  <si>
+    <t>Evidence Protection System</t>
+  </si>
+  <si>
+    <t>Tau Net</t>
+  </si>
+  <si>
+    <t>DIY Virtual Reality Skateboard</t>
+  </si>
+  <si>
+    <t>Virtual Reality</t>
+  </si>
+  <si>
+    <t>File Transfer System using Elliptic Curve</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Patient Data Management System</t>
+  </si>
+  <si>
+    <t>Parkinson’s Detector System</t>
+  </si>
+  <si>
+    <t>Maching learning</t>
+  </si>
+  <si>
+    <t>Sales Prediction in Tourism Industry</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>Html &amp; CSS &amp; ASP.NET</t>
+  </si>
+  <si>
+    <t>Html &amp; CSS &amp; JavaScript &amp; MYSQL.</t>
+  </si>
+  <si>
+    <t>Html &amp; CSS &amp;  JavaScript &amp; ASP.net</t>
+  </si>
+  <si>
+    <t>3D printing &amp; Bluetooth</t>
+  </si>
+  <si>
+    <t>Html &amp; CSS &amp; JavaScript &amp; MySQL Database &amp; Django</t>
+  </si>
+  <si>
+    <t>Html &amp; CSS &amp; JavaScript &amp; MySQL</t>
+  </si>
+  <si>
+    <t>Python &amp; H2O.ai</t>
+  </si>
+  <si>
+    <t>Machine Learning &amp; R</t>
+  </si>
+  <si>
+    <t>Python &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>logistic regression &amp; R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +813,36 @@
     <font>
       <sz val="12"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -764,10 +1187,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -818,6 +1249,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1112,16 +1546,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1597,7 @@
       <c r="J2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1618,7 @@
       <c r="J3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1639,7 @@
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1660,7 @@
       <c r="J5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1681,7 @@
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1702,7 @@
       <c r="J7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1723,7 @@
       <c r="J8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1744,7 @@
       <c r="J9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1327,7 +1765,7 @@
       <c r="J10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1786,7 @@
       <c r="J11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1807,7 @@
       <c r="J12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1831,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1855,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1879,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1903,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1927,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1951,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1975,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1999,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +2022,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1618,7 +2056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>81</v>
       </c>
@@ -1635,7 +2073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1652,7 +2090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +2107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +2124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1737,7 +2175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1754,7 +2192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +2209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +2226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1805,7 +2243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1822,7 +2260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +2277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +2294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1873,7 +2311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -1890,7 +2328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1907,7 +2345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +2362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1941,7 +2379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -1958,7 +2396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +2413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -1992,7 +2430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -2009,7 +2447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -2026,7 +2464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
@@ -2043,7 +2481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2094,7 +2532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2111,7 +2549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2128,7 +2566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2145,7 +2583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2162,7 +2600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2179,7 +2617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -2196,7 +2634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2264,7 +2702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
@@ -2281,7 +2719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>55</v>
       </c>
@@ -2298,7 +2736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
@@ -2315,7 +2753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>51</v>
       </c>
@@ -2332,7 +2770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
@@ -2349,7 +2787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
@@ -2366,7 +2804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
@@ -2383,7 +2821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>48</v>
       </c>
@@ -2400,7 +2838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>50</v>
       </c>
@@ -2417,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -2434,7 +2872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
@@ -2451,7 +2889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2502,7 +2940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>29</v>
       </c>
@@ -2519,7 +2957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>37</v>
       </c>
@@ -2536,7 +2974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>37</v>
       </c>
@@ -2553,7 +2991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>35</v>
       </c>
@@ -2570,7 +3008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +3025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>22</v>
       </c>
@@ -2604,7 +3042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +3059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +3076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>26</v>
       </c>
@@ -2655,7 +3093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>61</v>
       </c>
@@ -2672,7 +3110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>62</v>
       </c>
@@ -2689,7 +3127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>63</v>
       </c>
@@ -2706,7 +3144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>64</v>
       </c>
@@ -2723,7 +3161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>65</v>
       </c>
@@ -2740,7 +3178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>66</v>
       </c>
@@ -2757,7 +3195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>67</v>
       </c>
@@ -2774,7 +3212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>68</v>
       </c>
@@ -2791,7 +3229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>69</v>
       </c>
@@ -2808,7 +3246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>70</v>
       </c>
@@ -2825,7 +3263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>71</v>
       </c>
@@ -2842,7 +3280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>72</v>
       </c>
@@ -2859,7 +3297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +3314,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>74</v>
       </c>
@@ -2893,7 +3331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
@@ -2910,7 +3348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>76</v>
       </c>
@@ -2927,7 +3365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>77</v>
       </c>
@@ -2944,7 +3382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>78</v>
       </c>
@@ -2961,7 +3399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>79</v>
       </c>
@@ -2978,7 +3416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
@@ -2995,292 +3433,1469 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B105" t="s">
-        <v>83</v>
-      </c>
-      <c r="E105" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B106" t="s">
-        <v>83</v>
-      </c>
-      <c r="E106" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>100</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>100</v>
+      </c>
+      <c r="E121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B107" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C176" t="s">
+        <v>116</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>116</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" t="s">
+        <v>116</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" t="s">
+        <v>116</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -18650,6 +20265,8 @@
       <c r="A5314" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>